--- a/biology/Zoologie/Solenopsis_foersteri/Solenopsis_foersteri.xlsx
+++ b/biology/Zoologie/Solenopsis_foersteri/Solenopsis_foersteri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solenopsis foersteri est une espèce fossile d'insectes hyménoptères fourmis piqueuses de la famille des Formicidae, de la sous-famille des Myrmicinae, de la tribu des Solenopsidini et du genre Solenopsis.
 </t>
@@ -511,59 +523,241 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Solenopsis foersteri est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2]. 
-Fossiles
-Le spécimen holotype R 236 vient de la collection Mieg, du musée de Bâle. Il y a aussi de nombreux autres paratypes, R236, 231, 50,385, 461,502,174, 192b, de la collection Mieg et trois échantillons de Brunnstatt (collection personnelle Bt20, 21, 11 avec contre empreintes).  Ces insectes viennent des terrains sannoisiens de la localité de Kleinkembs de la commune d'Efringen-Kirchen en pays de Bade, en Allemagne, juste à côté de la frontière franco-allemande du Rhin, au sud-est de l'Alsace. 
-Étymologie
-L'épithète spécifique latine foersteri rend hommage à l'entomologiste et paléontologue allemand Bruno Förster (1852–1924) qui a décrit, entre autres, la même année 1891, six fourmis fossiles du même genre sur les neuf connues en 2022 :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Solenopsis foersteri est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Solenopsis_foersteri</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solenopsis_foersteri</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen holotype R 236 vient de la collection Mieg, du musée de Bâle. Il y a aussi de nombreux autres paratypes, R236, 231, 50,385, 461,502,174, 192b, de la collection Mieg et trois échantillons de Brunnstatt (collection personnelle Bt20, 21, 11 avec contre empreintes).  Ces insectes viennent des terrains sannoisiens de la localité de Kleinkembs de la commune d'Efringen-Kirchen en pays de Bade, en Allemagne, juste à côté de la frontière franco-allemande du Rhin, au sud-est de l'Alsace. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Solenopsis_foersteri</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solenopsis_foersteri</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'épithète spécifique latine foersteri rend hommage à l'entomologiste et paléontologue allemand Bruno Förster (1852–1924) qui a décrit, entre autres, la même année 1891, six fourmis fossiles du même genre sur les neuf connues en 2022 :
 †Solenopsis blanda Förster, 1891
 †Solenopsis maxima Förster, 1891
 †Solenopsis moesta Förster, 1891
 †Solenopsis privata Förster, 1891
 †Solenopsis superba Förster, 1891
-†Solenopsis valida Förster, 1891
-Citation
-L'espèce a été citée en 2007 par Barry Bolton dans son « Catalogue of Ants of the World »[2],[3]
+†Solenopsis valida Förster, 1891</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Solenopsis_foersteri</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solenopsis_foersteri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Citation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été citée en 2007 par Barry Bolton dans son « Catalogue of Ants of the World »,
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Solenopsis_foersteri</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Solenopsis_foersteri</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald de 1937[4],[note 1] : 
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diagnose de Nicolas Théobald de 1937,[note 1] : 
 « Insecte de petite taille, tête et thorax noirs, abdomen brun clair. Ailes légèrement jaunâtres
-Tête ovale, transversale, 2 yeux latéraux de petite taille ; ocelles non visibles ; antennes non coudées ; scape allongé. Cou net. Thorax ovale ; mésonotum large ; scutellum large et court ; métanotum rétréci vers l'arrière. Pétiole formé de deux segments, dont le premier est plus long que le second, ce dernier transversal. Abdomen ovale, subglobuleux ; 5 segments, dont les deux premiers sont plus longs que les suivants. Pattes grêles et longues. Les ailes ne sont plus conservées qu'en partie. »[4].
-Dimensions
-La longueur totale est de 7,2 mm[4].
-Affinités
-« Diffère des Solenopsis décrits plus haut par la couleur du corps et la forme de la tête. Il semble bien qu'il faille ranger parmi cette espèce Attopsis cf migra Heer que Förster a décrit de Brunnstatt. Cette espèce est d'ailleurs très voisine de Attopsis anthracina = Attopsis nigra Heer, mais dans celle-ci le corps est uniformément noir. Attopsis maesta Förster, représenté par deux ailes seulement, appartient aussi à cette forme. »[4].
+Tête ovale, transversale, 2 yeux latéraux de petite taille ; ocelles non visibles ; antennes non coudées ; scape allongé. Cou net. Thorax ovale ; mésonotum large ; scutellum large et court ; métanotum rétréci vers l'arrière. Pétiole formé de deux segments, dont le premier est plus long que le second, ce dernier transversal. Abdomen ovale, subglobuleux ; 5 segments, dont les deux premiers sont plus longs que les suivants. Pattes grêles et longues. Les ailes ne sont plus conservées qu'en partie. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Solenopsis_foersteri</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solenopsis_foersteri</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 7,2 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Solenopsis_foersteri</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solenopsis_foersteri</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Diffère des Solenopsis décrits plus haut par la couleur du corps et la forme de la tête. Il semble bien qu'il faille ranger parmi cette espèce Attopsis cf migra Heer que Förster a décrit de Brunnstatt. Cette espèce est d'ailleurs très voisine de Attopsis anthracina = Attopsis nigra Heer, mais dans celle-ci le corps est uniformément noir. Attopsis maesta Förster, représenté par deux ailes seulement, appartient aussi à cette forme. ».
 </t>
         </is>
       </c>
